--- a/Peer Form 1.xlsx
+++ b/Peer Form 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="144">
   <si>
     <t xml:space="preserve">Ref</t>
   </si>
@@ -263,6 +263,195 @@
   </si>
   <si>
     <t xml:space="preserve">Worked on 4-6 weeks size of modules like Tenant, SSO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not had understanding for the IE &amp; Payments modules which are critical part an application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes lacks inthe product understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Estate, Permit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good understanding of the goals of modules like estate &amp; permit on which worked on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not identified any till now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never it is identified any gap in the requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed the requirements for impacted areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many time discuss the requirements for finding the impacted areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss with Leads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always discuss with the leads for the requirement gaps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Priortizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self prioritzes the task by himself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not required any help on prioritization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When fully occupied in sprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes trade off if fully occupied in sprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average (with Lead's Help)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepares when lead asks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepares the document when ask by the lead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had created many requirement docs like permit form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly document the steps for testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on 2-3 days for eg Estate, Enforcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usually worked on 2-3 weeks module like Estate, Enforcement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Estate &amp; Enforcement seeks clarification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Esatate &amp; Enforcement only do requirement clarifications for 2-3 weks module size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flows are not clear for the FE modules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has good understanding of the modules but for FE some modules are not clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good understanding for Permit &amp; Movement API's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had an excellent understanding of the module like Permit &amp; Movement API's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For permit had not explored the payment section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rarely there is a requirement gap but like in permits payment module is not explored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had multiple discussions with the leads for requirements clarifications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many times discuss the requirments with the tleads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarifiend requirments on Estate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirmeent clarifications for Estae are discussed with product owner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim prioritzes the modules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business owner priorizes the module like Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self prioritized the payment modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No help is required do self prioritization like on Layment module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Movement API change in design during implementation traded off from sprint 14 with payments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sometimes do the prioritization &amp; trade off by himself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In sprint 14 trade off the permit Module for Permti API's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good(self) trade of the things like payments with permit API's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participate when asked by leads such as on payments module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rarely as if only when asked by the leads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadn't documented any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never document the steps for testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 week+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involved actively in requirement clarifications for Tenant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on clarification for 8 weeks of module size like Teanant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarifies the requirement by himself on permit API's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on 4-6 weeks module on Permit API's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Solving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For what size implementations have investigations been done by self?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked independently on the Moveemnt API's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independenlty work on the API's module for size 4-6 weeks</t>
   </si>
 </sst>
 </file>
@@ -353,7 +542,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,6 +552,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,10 +581,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
@@ -1019,6 +1212,708 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1048,42 +1943,42 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7" type="list">
       <formula1>"Self,Peer,Lead,Mentor,Product Owner,Business Owner"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10" type="list">
       <formula1>"Average (with Lead's Help),Good (with Lead's Help),Average (Self),Good (Self)"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F11:F12" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F11:F12" type="list">
       <formula1>"Always,Many times,Some times,Rarely,Never"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F13:F14" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F13:F14" type="list">
       <formula1>"Upto a Day,2-3 Days,Week,2-3 weeks,4-6 weeks,8 week+"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F8" type="list">
       <formula1>"Always,Sometimes,Always Able to Prioritize by self"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5 F9" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5 F9" type="list">
       <formula1>"Many times,Some times,Rarely,Never"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
       <formula1>"Poor,Average,Good,Very Good,Excellent"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="list">
       <formula1>"Peer,Lead,Mentor,Product Owner,Business Owner"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Peer Form 1.xlsx
+++ b/Peer Form 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="144">
   <si>
     <t xml:space="preserve">Ref</t>
   </si>
@@ -542,9 +542,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -579,1406 +583,3479 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="55.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="1" width="14.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="12.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7 F47 F100" type="list">
       <formula1>"Self,Peer,Lead,Mentor,Product Owner,Business Owner"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10 F50 F103" type="list">
       <formula1>"Average (with Lead's Help),Good (with Lead's Help),Average (Self),Good (Self)"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F11:F12" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F11:F12 F51:F52 F104:F105" type="list">
       <formula1>"Always,Many times,Some times,Rarely,Never"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F13:F14" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F13:F14 F53:F54 F106:F107" type="list">
       <formula1>"Upto a Day,2-3 Days,Week,2-3 weeks,4-6 weeks,8 week+"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F8 F48 F101" type="list">
       <formula1>"Always,Sometimes,Always Able to Prioritize by self"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5 F9" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:F5 F9 F44:F45 F49 F97:F98 F102" type="list">
       <formula1>"Many times,Some times,Rarely,Never"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3 F42:F43" type="list">
       <formula1>"Poor,Average,Good,Very Good,Excellent"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6 F46 F99" type="list">
       <formula1>"Peer,Lead,Mentor,Product Owner,Business Owner"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Peer Form 1.xlsx
+++ b/Peer Form 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="144">
   <si>
     <t xml:space="preserve">Ref</t>
   </si>
@@ -582,10 +582,10 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D97" activeCellId="0" sqref="D97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D71" activeCellId="0" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -2935,6 +2935,15 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>141</v>
       </c>
@@ -4014,6 +4023,32 @@
         <v>93</v>
       </c>
       <c r="H113" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>94</v>
       </c>
     </row>
